--- a/Assets/kumagai/Resources/CharacterTemplate.xlsx
+++ b/Assets/kumagai/Resources/CharacterTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Desktop\TOBSample\Assets\PlayerEditor\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Desktop\新しいフォルダー\Assets\kumagai\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639064AE-5F1B-40EA-9424-29DDD7E66086}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A01790E-891D-4777-B3CB-FC519D844668}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17685" xr2:uid="{2F92D5B1-87E4-42D9-8F21-69A1B7F8980B}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>120</v>
